--- a/ControlVersionesDocumentacion.xlsx
+++ b/ControlVersionesDocumentacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GIT\Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014DDB86-C3DA-401C-A043-C749CA6322E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BAAF3-B5D0-4856-A5B1-E72DFC67A41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>ID Doc</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Product Owner</t>
   </si>
   <si>
-    <t>/Gestión/Inicio</t>
-  </si>
-  <si>
     <t>DOC-02</t>
   </si>
   <si>
@@ -74,75 +71,30 @@
     <t>29/12/2025</t>
   </si>
   <si>
-    <t>Jira / Azure</t>
-  </si>
-  <si>
-    <t>DOC-03</t>
-  </si>
-  <si>
-    <t>Acta de Cierre - Fase 1</t>
-  </si>
-  <si>
     <t>Cerrado</t>
   </si>
   <si>
-    <t>Scrum Master</t>
-  </si>
-  <si>
-    <t>/Gestión/Cierres</t>
-  </si>
-  <si>
     <t>DOC-04</t>
   </si>
   <si>
-    <t>Acta de Cierre - Fase 2 (Filtros)</t>
-  </si>
-  <si>
-    <t>En Firma</t>
-  </si>
-  <si>
     <t>DOC-05</t>
   </si>
   <si>
-    <t>Manual de Usuario - Cobranza</t>
-  </si>
-  <si>
-    <t>Técnico</t>
-  </si>
-  <si>
     <t>v2.1</t>
   </si>
   <si>
-    <t>Publicado</t>
-  </si>
-  <si>
     <t>28/12/2025</t>
   </si>
   <si>
-    <t>Equipo Dev</t>
-  </si>
-  <si>
-    <t>/Docs/Usuario</t>
-  </si>
-  <si>
     <t>DOC-06</t>
   </si>
   <si>
-    <t>Arquitectura de Datos (BI)</t>
-  </si>
-  <si>
     <t>v1.3</t>
   </si>
   <si>
     <t>15/12/2025</t>
   </si>
   <si>
-    <t>Líder Técnico</t>
-  </si>
-  <si>
-    <t>/Docs/Técnico</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -240,16 +192,25 @@
   </si>
   <si>
     <t>ITDEV</t>
+  </si>
+  <si>
+    <t>Q:\GIT\Proyectos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,13 +236,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D90ED1C-B44C-4AD7-AA78-0EDF700C6487}" name="Tabla1" displayName="Tabla1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H7" xr:uid="{4D90ED1C-B44C-4AD7-AA78-0EDF700C6487}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D90ED1C-B44C-4AD7-AA78-0EDF700C6487}" name="Tabla1" displayName="Tabla1" ref="A1:H5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H5" xr:uid="{4D90ED1C-B44C-4AD7-AA78-0EDF700C6487}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{12080B51-6B7D-4996-AA9B-DC7423487341}" name="ID Doc"/>
     <tableColumn id="2" xr3:uid="{EBE10584-40E0-4A79-8875-D965B259B157}" name="Nombre del Documento"/>
@@ -628,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,16 +640,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>46042</v>
@@ -694,15 +658,15 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -711,123 +675,20 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>46042</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>72</v>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -858,28 +719,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -890,126 +751,126 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
